--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -35,16 +35,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
     <t>zawb-meijie</t>
   </si>
   <si>
     <t>AAAbbb111</t>
-  </si>
-  <si>
-    <t>BBB</t>
   </si>
 </sst>
 </file>
@@ -986,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
@@ -1010,24 +1004,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
